--- a/va_facility_data_2025-02-20/Casa Grande VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Casa%20Grande%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Casa Grande VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Casa%20Grande%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R69ed76e15d874b40b547c85aa5741e79"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R016470b0f3004a668424ec5240aff17b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R66bdfdd79a9a495cba68e42608eb5bb1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R96c6484b4c9d4021b0f6886f55caa829"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7b3ef0442adf454da85f89a13b6e132b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdaeada55cd8f4e289f325cde9ca5dd3d"/>
   </x:sheets>
 </x:workbook>
 </file>
